--- a/Experiments/230111_Cofactors/buffers-sp.xlsx
+++ b/Experiments/230111_Cofactors/buffers-sp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230111_Cofactors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8339616-8D73-0049-8AB4-6CD116E95EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EAF864-6C54-B54D-ADFD-5C70F3797C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,13 +197,13 @@
     <t>60,60</t>
   </si>
   <si>
-    <t>60,60,60.0,60.0,60.0,60.0,</t>
-  </si>
-  <si>
     <t>46.5,60.0,60.0</t>
   </si>
   <si>
     <t>56.4,52.0,53.0</t>
+  </si>
+  <si>
+    <t>60,60,60.0,60.0,60.0,60.0</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F25" sqref="A1:F25"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>1000</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -813,7 +813,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
